--- a/exportExcel.xlsx
+++ b/exportExcel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,18 +421,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>admin</v>
+        <v>Văn Vũ</v>
       </c>
       <c r="C2" t="str">
         <v>C0223G1</v>
       </c>
       <c r="D2" t="str">
-        <v>3xThịt kho trứng,1xLặc lè luộc,</v>
+        <v xml:space="preserve">3 x Thịt kho trứng , Lặc lè luộc , </v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Văn Vũ</v>
+      </c>
+      <c r="C3" t="str">
+        <v>C0223G1</v>
+      </c>
+      <c r="D3" t="str">
+        <v xml:space="preserve">Thịt kho trứng , Gà kho gừng xả , Su su xào , Lặc lè luộc , </v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Cao Minh Toàn</v>
+      </c>
+      <c r="C4" t="str">
+        <v>C0323H1</v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve">Sườn xào chua ngọt , Trứng ốp , Gà kho gừng xả , Cải thảo xào tỏi , </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>